--- a/Nishani.xlsx
+++ b/Nishani.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1220,13 +1220,13 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="14.42578125" customWidth="1" style="1" min="1" max="256"/>
+    <col width="14.3984375" customWidth="1" style="1" min="1" max="256"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.7" customHeight="1" s="1">
@@ -1240,7 +1240,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr"/>
+      <c r="C1" s="3" t="n"/>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1250,8 +1250,10 @@
           <t>Academic Writing</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr"/>
-      <c r="C2" s="3" t="inlineStr"/>
+      <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="n"/>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="3" t="n"/>
     </row>
@@ -1285,8 +1287,8 @@
           <t>Barnamaj</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
     </row>
@@ -1335,14 +1337,10 @@
           <t>Ikhwan</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="B9" s="3" t="inlineStr"/>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Make sure to research Ikhwan language</t>
+          <t xml:space="preserve">	</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -1371,16 +1369,8 @@
           <t>Literature</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Reader 7</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Save file at prominent location.</t>
-        </is>
-      </c>
+      <c r="B11" s="3" t="inlineStr"/>
+      <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="3" t="n"/>
     </row>
@@ -1390,12 +1380,8 @@
           <t>Majalis</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n"/>
+      <c r="B12" s="3" t="inlineStr"/>
+      <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="3" t="n"/>
     </row>
@@ -1444,8 +1430,8 @@
           <t>Masool</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr"/>
-      <c r="C16" s="3" t="inlineStr"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="3" t="n"/>
     </row>
@@ -1455,12 +1441,8 @@
           <t>Mukhtasar</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="n"/>
+      <c r="B17" s="3" t="inlineStr"/>
+      <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="3" t="n"/>
     </row>
@@ -1470,8 +1452,8 @@
           <t>Muntakhaba</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr"/>
-      <c r="C18" s="3" t="inlineStr"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
       <c r="D18" s="3" t="n"/>
       <c r="E18" s="3" t="n"/>
     </row>
@@ -1509,10 +1491,8 @@
           <t>Risala B</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="n"/>
+      <c r="B21" s="3" t="inlineStr"/>
+      <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="3" t="n"/>
     </row>
@@ -1535,8 +1515,8 @@
           <t>Uloom Quran</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr"/>
-      <c r="C23" s="3" t="inlineStr"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="3" t="n"/>
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="3" t="n"/>
     </row>
@@ -1546,12 +1526,8 @@
           <t>Uyun</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="n"/>
+      <c r="B24" s="3" t="inlineStr"/>
+      <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="3" t="n"/>
     </row>
